--- a/Aufwandsklassen.xlsx
+++ b/Aufwandsklassen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/domvoetter/Documents/Schule/SWP/5AHWII (Rubner)/SWP_Rubner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8C69479-8E43-2443-B41F-6D2405D3D55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE0B398-C65C-F846-81B1-4F07A213C6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17100" xr2:uid="{CFE454A3-FC70-9F43-A655-B0636712D915}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16960" xr2:uid="{CFE454A3-FC70-9F43-A655-B0636712D915}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Methoden</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>sort()</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>getFirstElement()</t>
+  </si>
+  <si>
+    <t>getLastElement()</t>
   </si>
 </sst>
 </file>
@@ -113,7 +122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -121,14 +130,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -443,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9355BFA7-0030-ED4F-A57C-2E3E356B1CBD}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" activeCellId="1" sqref="B2 F9:F10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,51 +503,115 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
